--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.431822655157105</v>
+        <v>5.431822655179467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3749449783612576</v>
+        <v>0.3749449783623935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1366010034918724</v>
+        <v>0.1366010034921282</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.761688151524149</v>
+        <v>6.761688084058661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4622066279984076</v>
+        <v>0.4622066294237748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1734135775296337</v>
+        <v>0.1734135751893253</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.553433045408149</v>
+        <v>5.553433045381731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3841057279227705</v>
+        <v>0.3841057279208184</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1392126446580154</v>
+        <v>0.1392126446571486</v>
       </c>
     </row>
     <row r="5">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.634057942482128</v>
+        <v>5.619910144271492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3896242461486319</v>
+        <v>0.3886248361948457</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1404248348241993</v>
+        <v>0.1400469948883435</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.169419141360154</v>
+        <v>6.150175875140792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4313260400901521</v>
+        <v>0.4298620499890323</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1572697703680659</v>
+        <v>0.1565802782351481</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.717170548315164</v>
+        <v>6.717170548315265</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4588304548451648</v>
+        <v>0.4588304548451719</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1731903931269951</v>
+        <v>0.1731903931269973</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.764837612678446</v>
+        <v>6.764836358127497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4631797623938219</v>
+        <v>0.4631796770381866</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1732014619921234</v>
+        <v>0.1732014598582875</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.5866966777911</v>
+        <v>6.556874199691354</v>
       </c>
       <c r="C10" t="n">
-        <v>25.46608229838962</v>
+        <v>0.5814204975661607</v>
       </c>
       <c r="D10" t="n">
-        <v>5.562441600619989</v>
+        <v>0.1466317807477452</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.791602287529961</v>
+        <v>7.746949730856111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5724929200428891</v>
+        <v>0.5687155631349693</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2065593714180654</v>
+        <v>0.2059740041766938</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.866078056516971</v>
+        <v>7.762298895318323</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7536650923165407</v>
+        <v>0.5699919724103176</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2533565034613152</v>
+        <v>0.2053838296741866</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.465453737077326</v>
+        <v>7.383736928058548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4650409864622796</v>
+        <v>0.542791897780657</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1568888215965603</v>
+        <v>0.1735853382385902</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.746949730856111</v>
+        <v>7.729144223113726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5687155631349693</v>
+        <v>0.5672071322590899</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2059740041766938</v>
+        <v>0.2056535521215421</v>
       </c>
     </row>
     <row r="12">
